--- a/Code/Results/Cases/Case_4_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.055567595009734</v>
+        <v>1.088856633907994</v>
       </c>
       <c r="D2">
-        <v>1.064732116624165</v>
+        <v>1.08625611056525</v>
       </c>
       <c r="E2">
-        <v>1.071867121535686</v>
+        <v>1.100904103917283</v>
       </c>
       <c r="F2">
-        <v>1.075655853268496</v>
+        <v>1.104293278780401</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066941392519764</v>
+        <v>1.062355120766107</v>
       </c>
       <c r="J2">
-        <v>1.076204443797556</v>
+        <v>1.093694784128844</v>
       </c>
       <c r="K2">
-        <v>1.075357695382375</v>
+        <v>1.088914425145604</v>
       </c>
       <c r="L2">
-        <v>1.082408432094995</v>
+        <v>1.103525113759689</v>
       </c>
       <c r="M2">
-        <v>1.086152978713354</v>
+        <v>1.106905809096394</v>
       </c>
       <c r="N2">
-        <v>1.077732777550123</v>
+        <v>1.095247956170853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.062324467077614</v>
+        <v>1.090233540966354</v>
       </c>
       <c r="D3">
-        <v>1.070058105123412</v>
+        <v>1.087353308287575</v>
       </c>
       <c r="E3">
-        <v>1.078158929876401</v>
+        <v>1.102233737675016</v>
       </c>
       <c r="F3">
-        <v>1.081885598352489</v>
+        <v>1.105610951376704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06950284938109</v>
+        <v>1.062802169497368</v>
       </c>
       <c r="J3">
-        <v>1.081249160833736</v>
+        <v>1.094734204232563</v>
       </c>
       <c r="K3">
-        <v>1.07986668961798</v>
+        <v>1.089830298101888</v>
       </c>
       <c r="L3">
-        <v>1.087880667670165</v>
+        <v>1.104675578348985</v>
       </c>
       <c r="M3">
-        <v>1.091567917732504</v>
+        <v>1.108044955970594</v>
       </c>
       <c r="N3">
-        <v>1.082784658663132</v>
+        <v>1.096288852370342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.066582671359374</v>
+        <v>1.091123936216307</v>
       </c>
       <c r="D4">
-        <v>1.073416837533893</v>
+        <v>1.088062675589535</v>
       </c>
       <c r="E4">
-        <v>1.082129044068816</v>
+        <v>1.10309385679486</v>
       </c>
       <c r="F4">
-        <v>1.085817005853802</v>
+        <v>1.106463347066062</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071106619469436</v>
+        <v>1.063089888459671</v>
       </c>
       <c r="J4">
-        <v>1.084423997444542</v>
+        <v>1.095405689504406</v>
       </c>
       <c r="K4">
-        <v>1.082703135352011</v>
+        <v>1.090421737122657</v>
       </c>
       <c r="L4">
-        <v>1.091327867723768</v>
+        <v>1.10541920521033</v>
       </c>
       <c r="M4">
-        <v>1.094979314274079</v>
+        <v>1.108781272489287</v>
       </c>
       <c r="N4">
-        <v>1.085964003906085</v>
+        <v>1.09696129122829</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.068346886710172</v>
+        <v>1.091498129278859</v>
       </c>
       <c r="D5">
-        <v>1.074808866843527</v>
+        <v>1.088360754085183</v>
       </c>
       <c r="E5">
-        <v>1.083775046610263</v>
+        <v>1.103455395948747</v>
       </c>
       <c r="F5">
-        <v>1.087447063122848</v>
+        <v>1.106821643071848</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071768519555884</v>
+        <v>1.063210475409048</v>
       </c>
       <c r="J5">
-        <v>1.085738270727445</v>
+        <v>1.095687723974184</v>
       </c>
       <c r="K5">
-        <v>1.083877015284167</v>
+        <v>1.090670095081362</v>
       </c>
       <c r="L5">
-        <v>1.09275568502073</v>
+        <v>1.10573163720569</v>
       </c>
       <c r="M5">
-        <v>1.096392366749558</v>
+        <v>1.109090634238258</v>
       </c>
       <c r="N5">
-        <v>1.087280143607799</v>
+        <v>1.097243726219366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.068641622781635</v>
+        <v>1.091560950484236</v>
       </c>
       <c r="D6">
-        <v>1.075041450036684</v>
+        <v>1.088410794665746</v>
       </c>
       <c r="E6">
-        <v>1.084050099528353</v>
+        <v>1.103516096835935</v>
       </c>
       <c r="F6">
-        <v>1.087719457365074</v>
+        <v>1.106881799638902</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071878947261907</v>
+        <v>1.063230700823797</v>
       </c>
       <c r="J6">
-        <v>1.085957772362358</v>
+        <v>1.095735063757706</v>
       </c>
       <c r="K6">
-        <v>1.084073050620282</v>
+        <v>1.090711778948569</v>
       </c>
       <c r="L6">
-        <v>1.092994196839231</v>
+        <v>1.105784084930221</v>
       </c>
       <c r="M6">
-        <v>1.096628415838299</v>
+        <v>1.109142566629638</v>
       </c>
       <c r="N6">
-        <v>1.08749995696021</v>
+        <v>1.09729113323081</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.066606345085379</v>
+        <v>1.091128936704694</v>
       </c>
       <c r="D7">
-        <v>1.073435515172634</v>
+        <v>1.088066659074148</v>
       </c>
       <c r="E7">
-        <v>1.082151127051881</v>
+        <v>1.103098687910539</v>
       </c>
       <c r="F7">
-        <v>1.085838874516514</v>
+        <v>1.106468134831908</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071115511574939</v>
+        <v>1.063091501200995</v>
       </c>
       <c r="J7">
-        <v>1.084441637848199</v>
+        <v>1.095409459072855</v>
       </c>
       <c r="K7">
-        <v>1.082718892620528</v>
+        <v>1.090425056802929</v>
       </c>
       <c r="L7">
-        <v>1.091347028988545</v>
+        <v>1.105423380679886</v>
       </c>
       <c r="M7">
-        <v>1.094998277144914</v>
+        <v>1.108785406922293</v>
       </c>
       <c r="N7">
-        <v>1.085981669361137</v>
+        <v>1.096965066149959</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.057875545224212</v>
+        <v>1.089322083522966</v>
       </c>
       <c r="D8">
-        <v>1.066550793974936</v>
+        <v>1.086627037929704</v>
       </c>
       <c r="E8">
-        <v>1.074015134610108</v>
+        <v>1.10135351208551</v>
       </c>
       <c r="F8">
-        <v>1.07778257806214</v>
+        <v>1.104738641191567</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06781848680398</v>
+        <v>1.062506525013674</v>
       </c>
       <c r="J8">
-        <v>1.077928461176972</v>
+        <v>1.09404628818743</v>
       </c>
       <c r="K8">
-        <v>1.076898883677958</v>
+        <v>1.089224196942833</v>
       </c>
       <c r="L8">
-        <v>1.084277855732148</v>
+        <v>1.103914086208384</v>
       </c>
       <c r="M8">
-        <v>1.088002764618376</v>
+        <v>1.107290953932531</v>
       </c>
       <c r="N8">
-        <v>1.079459243231966</v>
+        <v>1.09559995940552</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.041552174020181</v>
+        <v>1.08613374515075</v>
       </c>
       <c r="D9">
-        <v>1.053700904740277</v>
+        <v>1.084085589970112</v>
       </c>
       <c r="E9">
-        <v>1.058846780074082</v>
+        <v>1.098276285387154</v>
       </c>
       <c r="F9">
-        <v>1.062766805956721</v>
+        <v>1.101689177618774</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061572134155896</v>
+        <v>1.061463780565913</v>
       </c>
       <c r="J9">
-        <v>1.065718367493057</v>
+        <v>1.091635741373214</v>
       </c>
       <c r="K9">
-        <v>1.065978917267935</v>
+        <v>1.087098892585358</v>
       </c>
       <c r="L9">
-        <v>1.071052173745042</v>
+        <v>1.101248252348684</v>
       </c>
       <c r="M9">
-        <v>1.074917475423466</v>
+        <v>1.104651375821712</v>
       </c>
       <c r="N9">
-        <v>1.067231809814502</v>
+        <v>1.093185989338334</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.029937039685668</v>
+        <v>1.084004958001994</v>
       </c>
       <c r="D10">
-        <v>1.044577992809442</v>
+        <v>1.082388007938853</v>
       </c>
       <c r="E10">
-        <v>1.048086935975689</v>
+        <v>1.096223249957443</v>
       </c>
       <c r="F10">
-        <v>1.052118453033587</v>
+        <v>1.099654744309656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057074932277381</v>
+        <v>1.060760504591379</v>
       </c>
       <c r="J10">
-        <v>1.05701124954218</v>
+        <v>1.09002284204936</v>
       </c>
       <c r="K10">
-        <v>1.058186467594306</v>
+        <v>1.085675662788307</v>
       </c>
       <c r="L10">
-        <v>1.061639049362859</v>
+        <v>1.099466631443698</v>
       </c>
       <c r="M10">
-        <v>1.065606405698146</v>
+        <v>1.102887333366628</v>
       </c>
       <c r="N10">
-        <v>1.058512326757414</v>
+        <v>1.091570799512438</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.024707715755002</v>
+        <v>1.08308234817625</v>
       </c>
       <c r="D11">
-        <v>1.040477017345329</v>
+        <v>1.081652122015664</v>
       </c>
       <c r="E11">
-        <v>1.043251673689943</v>
+        <v>1.095333849104741</v>
       </c>
       <c r="F11">
-        <v>1.047334200800952</v>
+        <v>1.09877342197227</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055038573012155</v>
+        <v>1.060454034943481</v>
       </c>
       <c r="J11">
-        <v>1.053087561789965</v>
+        <v>1.089323007168398</v>
       </c>
       <c r="K11">
-        <v>1.054673940676977</v>
+        <v>1.085057845931132</v>
       </c>
       <c r="L11">
-        <v>1.057401557948977</v>
+        <v>1.098694084539259</v>
       </c>
       <c r="M11">
-        <v>1.061415457489215</v>
+        <v>1.102122416983362</v>
       </c>
       <c r="N11">
-        <v>1.054583066918539</v>
+        <v>1.090869970785673</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.02273277131336</v>
+        <v>1.082739520077677</v>
       </c>
       <c r="D12">
-        <v>1.038929294011145</v>
+        <v>1.081378654627826</v>
       </c>
       <c r="E12">
-        <v>1.041427005038781</v>
+        <v>1.095003418432041</v>
       </c>
       <c r="F12">
-        <v>1.045528930913246</v>
+        <v>1.098445995700285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05426783452383</v>
+        <v>1.060339904321367</v>
       </c>
       <c r="J12">
-        <v>1.051605254927912</v>
+        <v>1.089062837646774</v>
       </c>
       <c r="K12">
-        <v>1.053346834445378</v>
+        <v>1.084828125505767</v>
       </c>
       <c r="L12">
-        <v>1.055801355830303</v>
+        <v>1.098406958245021</v>
       </c>
       <c r="M12">
-        <v>1.059832930798222</v>
+        <v>1.10183812794884</v>
       </c>
       <c r="N12">
-        <v>1.053098655010718</v>
+        <v>1.090609431793486</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.023157919496146</v>
+        <v>1.082813063817873</v>
       </c>
       <c r="D13">
-        <v>1.039262422838355</v>
+        <v>1.081437320089894</v>
       </c>
       <c r="E13">
-        <v>1.041819735967108</v>
+        <v>1.095074300057069</v>
       </c>
       <c r="F13">
-        <v>1.045917479608153</v>
+        <v>1.098516232702626</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054433826320685</v>
+        <v>1.060364399065614</v>
       </c>
       <c r="J13">
-        <v>1.051924371839</v>
+        <v>1.089118654890277</v>
       </c>
       <c r="K13">
-        <v>1.053632544595997</v>
+        <v>1.084877412033048</v>
       </c>
       <c r="L13">
-        <v>1.05614582410098</v>
+        <v>1.098468555471012</v>
       </c>
       <c r="M13">
-        <v>1.060173589521562</v>
+        <v>1.101899116438151</v>
       </c>
       <c r="N13">
-        <v>1.053418225104424</v>
+        <v>1.090665328303877</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.024545145557387</v>
+        <v>1.083054012573484</v>
       </c>
       <c r="D14">
-        <v>1.040349591685159</v>
+        <v>1.081629519716699</v>
       </c>
       <c r="E14">
-        <v>1.043101443579811</v>
+        <v>1.09530653700467</v>
       </c>
       <c r="F14">
-        <v>1.047185564738082</v>
+        <v>1.098746358141103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054975162106328</v>
+        <v>1.060444606881114</v>
       </c>
       <c r="J14">
-        <v>1.052965552516226</v>
+        <v>1.089301505976527</v>
       </c>
       <c r="K14">
-        <v>1.054564708514491</v>
+        <v>1.085038861995586</v>
       </c>
       <c r="L14">
-        <v>1.057269831369271</v>
+        <v>1.098670354038451</v>
       </c>
       <c r="M14">
-        <v>1.061285183857438</v>
+        <v>1.102098920950686</v>
       </c>
       <c r="N14">
-        <v>1.054460884377636</v>
+        <v>1.090848439059643</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.025395469560046</v>
+        <v>1.083202451717018</v>
       </c>
       <c r="D15">
-        <v>1.041016136845634</v>
+        <v>1.081747923381504</v>
       </c>
       <c r="E15">
-        <v>1.043887282377698</v>
+        <v>1.095449616774375</v>
       </c>
       <c r="F15">
-        <v>1.047963071385464</v>
+        <v>1.098888137431745</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055306765529854</v>
+        <v>1.060493986534585</v>
       </c>
       <c r="J15">
-        <v>1.053603704321647</v>
+        <v>1.089414137349484</v>
       </c>
       <c r="K15">
-        <v>1.055136026373282</v>
+        <v>1.085138305318049</v>
       </c>
       <c r="L15">
-        <v>1.057958834779824</v>
+        <v>1.098794666425978</v>
       </c>
       <c r="M15">
-        <v>1.061966591637283</v>
+        <v>1.102222005128315</v>
       </c>
       <c r="N15">
-        <v>1.055099942431818</v>
+        <v>1.090961230382069</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.030279673256112</v>
+        <v>1.084066170653604</v>
       </c>
       <c r="D16">
-        <v>1.04484683696106</v>
+        <v>1.082436828684088</v>
       </c>
       <c r="E16">
-        <v>1.048403944777146</v>
+        <v>1.096282267306234</v>
       </c>
       <c r="F16">
-        <v>1.05243213741936</v>
+        <v>1.099713226023328</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057208122594161</v>
+        <v>1.060780802816196</v>
       </c>
       <c r="J16">
-        <v>1.057268267860161</v>
+        <v>1.090069257171062</v>
       </c>
       <c r="K16">
-        <v>1.058416533966819</v>
+        <v>1.085716632365866</v>
       </c>
       <c r="L16">
-        <v>1.061916713392737</v>
+        <v>1.099517879485706</v>
       </c>
       <c r="M16">
-        <v>1.065881033168253</v>
+        <v>1.102938075403525</v>
       </c>
       <c r="N16">
-        <v>1.058769710070888</v>
+        <v>1.091617280548937</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.033288201640154</v>
+        <v>1.084607732809421</v>
       </c>
       <c r="D17">
-        <v>1.047208178654275</v>
+        <v>1.08286873857503</v>
       </c>
       <c r="E17">
-        <v>1.051188501324966</v>
+        <v>1.096804450893003</v>
       </c>
       <c r="F17">
-        <v>1.055187597085632</v>
+        <v>1.100230672630233</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058376304470972</v>
+        <v>1.060960192751937</v>
       </c>
       <c r="J17">
-        <v>1.059524644705067</v>
+        <v>1.090479808831479</v>
       </c>
       <c r="K17">
-        <v>1.060436186011117</v>
+        <v>1.086078984812548</v>
       </c>
       <c r="L17">
-        <v>1.064354831502578</v>
+        <v>1.099971236602344</v>
       </c>
       <c r="M17">
-        <v>1.068292556844497</v>
+        <v>1.103386957180072</v>
       </c>
       <c r="N17">
-        <v>1.061029291229724</v>
+        <v>1.092028415239802</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.035023921933013</v>
+        <v>1.084923537010771</v>
       </c>
       <c r="D18">
-        <v>1.048571100763335</v>
+        <v>1.083120585238646</v>
       </c>
       <c r="E18">
-        <v>1.052795845703087</v>
+        <v>1.097108991210176</v>
       </c>
       <c r="F18">
-        <v>1.056778230505418</v>
+        <v>1.100532452223073</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059049164587369</v>
+        <v>1.06106464017265</v>
       </c>
       <c r="J18">
-        <v>1.060826078612084</v>
+        <v>1.090719138082089</v>
       </c>
       <c r="K18">
-        <v>1.061600984375168</v>
+        <v>1.086290189617347</v>
       </c>
       <c r="L18">
-        <v>1.065761499254989</v>
+        <v>1.100235566904218</v>
       </c>
       <c r="M18">
-        <v>1.069683937050693</v>
+        <v>1.10364867891215</v>
       </c>
       <c r="N18">
-        <v>1.062332573322164</v>
+        <v>1.0922680843654</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.035612589174693</v>
+        <v>1.085031204687037</v>
       </c>
       <c r="D19">
-        <v>1.049033429544221</v>
+        <v>1.083206445125596</v>
       </c>
       <c r="E19">
-        <v>1.053341114247906</v>
+        <v>1.097212824834793</v>
       </c>
       <c r="F19">
-        <v>1.057317844119254</v>
+        <v>1.100635344894324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059277174932902</v>
+        <v>1.0611002222592</v>
       </c>
       <c r="J19">
-        <v>1.061267397340476</v>
+        <v>1.090800719770832</v>
       </c>
       <c r="K19">
-        <v>1.061995952563131</v>
+        <v>1.086362179773789</v>
       </c>
       <c r="L19">
-        <v>1.066238572311873</v>
+        <v>1.100325678968655</v>
       </c>
       <c r="M19">
-        <v>1.070155834575202</v>
+        <v>1.103737901827457</v>
       </c>
       <c r="N19">
-        <v>1.062774518773771</v>
+        <v>1.092349781909498</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.032967408222448</v>
+        <v>1.084549636610678</v>
       </c>
       <c r="D20">
-        <v>1.046956331761886</v>
+        <v>1.082822406933576</v>
       </c>
       <c r="E20">
-        <v>1.050891501555546</v>
+        <v>1.096748429759375</v>
       </c>
       <c r="F20">
-        <v>1.05489369188648</v>
+        <v>1.100175159493395</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058251857590784</v>
+        <v>1.060940965336587</v>
       </c>
       <c r="J20">
-        <v>1.059284087000434</v>
+        <v>1.09043577488508</v>
       </c>
       <c r="K20">
-        <v>1.06022087605217</v>
+        <v>1.086040123284514</v>
       </c>
       <c r="L20">
-        <v>1.064094855422718</v>
+        <v>1.099922606587296</v>
       </c>
       <c r="M20">
-        <v>1.068035410639894</v>
+        <v>1.103338807137636</v>
       </c>
       <c r="N20">
-        <v>1.060788391905557</v>
+        <v>1.091984318760149</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.02413756189838</v>
+        <v>1.082983062791004</v>
       </c>
       <c r="D21">
-        <v>1.040030137605245</v>
+        <v>1.081572925236867</v>
       </c>
       <c r="E21">
-        <v>1.042724821762564</v>
+        <v>1.095238150910536</v>
       </c>
       <c r="F21">
-        <v>1.046812941591027</v>
+        <v>1.098678593731187</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054816156467524</v>
+        <v>1.06042099581229</v>
       </c>
       <c r="J21">
-        <v>1.052659653044928</v>
+        <v>1.089247666981833</v>
       </c>
       <c r="K21">
-        <v>1.054290841589077</v>
+        <v>1.084991325537468</v>
       </c>
       <c r="L21">
-        <v>1.056939579383948</v>
+        <v>1.09861093405697</v>
       </c>
       <c r="M21">
-        <v>1.060958576191206</v>
+        <v>1.102040088086594</v>
       </c>
       <c r="N21">
-        <v>1.054154550494002</v>
+        <v>1.090794523607401</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.018396160661067</v>
+        <v>1.08199734263968</v>
       </c>
       <c r="D22">
-        <v>1.03553293138532</v>
+        <v>1.08078659252226</v>
       </c>
       <c r="E22">
-        <v>1.037423166529603</v>
+        <v>1.094288185550831</v>
       </c>
       <c r="F22">
-        <v>1.04156794903429</v>
+        <v>1.097737271688564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052572445903777</v>
+        <v>1.060092367626912</v>
       </c>
       <c r="J22">
-        <v>1.048349638052698</v>
+        <v>1.088499383594566</v>
       </c>
       <c r="K22">
-        <v>1.050431876432847</v>
+        <v>1.08433053936348</v>
       </c>
       <c r="L22">
-        <v>1.052288013221976</v>
+        <v>1.097785259763921</v>
       </c>
       <c r="M22">
-        <v>1.056358589450806</v>
+        <v>1.101222575244906</v>
       </c>
       <c r="N22">
-        <v>1.049838414786117</v>
+        <v>1.090045177571895</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.021458683509067</v>
+        <v>1.082519964556255</v>
       </c>
       <c r="D23">
-        <v>1.037931139952627</v>
+        <v>1.08120351299646</v>
       </c>
       <c r="E23">
-        <v>1.040250286542379</v>
+        <v>1.094791818779717</v>
       </c>
       <c r="F23">
-        <v>1.044364766348915</v>
+        <v>1.098236320865956</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053770150081563</v>
+        <v>1.060266741614551</v>
       </c>
       <c r="J23">
-        <v>1.050648862156471</v>
+        <v>1.088896184600192</v>
       </c>
       <c r="K23">
-        <v>1.052490544603357</v>
+        <v>1.084680965053153</v>
       </c>
       <c r="L23">
-        <v>1.054769081249475</v>
+        <v>1.098223058871467</v>
       </c>
       <c r="M23">
-        <v>1.058812087659053</v>
+        <v>1.101656046159972</v>
       </c>
       <c r="N23">
-        <v>1.052140904051842</v>
+        <v>1.090442542080462</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.033112419808954</v>
+        <v>1.084575888028631</v>
       </c>
       <c r="D24">
-        <v>1.047070174925658</v>
+        <v>1.082843342452243</v>
       </c>
       <c r="E24">
-        <v>1.051025754848449</v>
+        <v>1.096773743423355</v>
       </c>
       <c r="F24">
-        <v>1.055026546073486</v>
+        <v>1.100200243608472</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058308116038768</v>
+        <v>1.060949653957828</v>
       </c>
       <c r="J24">
-        <v>1.059392829880164</v>
+        <v>1.090455672358104</v>
       </c>
       <c r="K24">
-        <v>1.060318206121521</v>
+        <v>1.086057683597291</v>
       </c>
       <c r="L24">
-        <v>1.064212375009735</v>
+        <v>1.099944580722851</v>
       </c>
       <c r="M24">
-        <v>1.068151650836717</v>
+        <v>1.103360564388612</v>
       </c>
       <c r="N24">
-        <v>1.060897289212649</v>
+        <v>1.092004244489867</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.045893260533907</v>
+        <v>1.086958557792628</v>
       </c>
       <c r="D25">
-        <v>1.057115148980565</v>
+        <v>1.084743182430202</v>
       </c>
       <c r="E25">
-        <v>1.062875308105792</v>
+        <v>1.099072080640457</v>
       </c>
       <c r="F25">
-        <v>1.066754293828761</v>
+        <v>1.102477779462998</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063242531422155</v>
+        <v>1.061734778788974</v>
       </c>
       <c r="J25">
-        <v>1.068969041085349</v>
+        <v>1.092259946830575</v>
       </c>
       <c r="K25">
-        <v>1.068887108663541</v>
+        <v>1.087649444663372</v>
       </c>
       <c r="L25">
-        <v>1.074570120771777</v>
+        <v>1.101938195809169</v>
       </c>
       <c r="M25">
-        <v>1.078397743173532</v>
+        <v>1.105334518775739</v>
       </c>
       <c r="N25">
-        <v>1.070487099736152</v>
+        <v>1.093811081239041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_184/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.088856633907994</v>
+        <v>1.055567595009736</v>
       </c>
       <c r="D2">
-        <v>1.08625611056525</v>
+        <v>1.064732116624166</v>
       </c>
       <c r="E2">
-        <v>1.100904103917283</v>
+        <v>1.071867121535688</v>
       </c>
       <c r="F2">
-        <v>1.104293278780401</v>
+        <v>1.075655853268497</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062355120766107</v>
+        <v>1.066941392519765</v>
       </c>
       <c r="J2">
-        <v>1.093694784128844</v>
+        <v>1.076204443797557</v>
       </c>
       <c r="K2">
-        <v>1.088914425145604</v>
+        <v>1.075357695382376</v>
       </c>
       <c r="L2">
-        <v>1.103525113759689</v>
+        <v>1.082408432094996</v>
       </c>
       <c r="M2">
-        <v>1.106905809096394</v>
+        <v>1.086152978713355</v>
       </c>
       <c r="N2">
-        <v>1.095247956170853</v>
+        <v>1.077732777550125</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.090233540966354</v>
+        <v>1.062324467077613</v>
       </c>
       <c r="D3">
-        <v>1.087353308287575</v>
+        <v>1.070058105123412</v>
       </c>
       <c r="E3">
-        <v>1.102233737675016</v>
+        <v>1.0781589298764</v>
       </c>
       <c r="F3">
-        <v>1.105610951376704</v>
+        <v>1.081885598352488</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062802169497368</v>
+        <v>1.069502849381089</v>
       </c>
       <c r="J3">
-        <v>1.094734204232563</v>
+        <v>1.081249160833735</v>
       </c>
       <c r="K3">
-        <v>1.089830298101888</v>
+        <v>1.07986668961798</v>
       </c>
       <c r="L3">
-        <v>1.104675578348985</v>
+        <v>1.087880667670164</v>
       </c>
       <c r="M3">
-        <v>1.108044955970594</v>
+        <v>1.091567917732502</v>
       </c>
       <c r="N3">
-        <v>1.096288852370342</v>
+        <v>1.082784658663132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.091123936216307</v>
+        <v>1.066582671359373</v>
       </c>
       <c r="D4">
-        <v>1.088062675589535</v>
+        <v>1.073416837533893</v>
       </c>
       <c r="E4">
-        <v>1.10309385679486</v>
+        <v>1.082129044068815</v>
       </c>
       <c r="F4">
-        <v>1.106463347066062</v>
+        <v>1.085817005853802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063089888459671</v>
+        <v>1.071106619469435</v>
       </c>
       <c r="J4">
-        <v>1.095405689504406</v>
+        <v>1.084423997444542</v>
       </c>
       <c r="K4">
-        <v>1.090421737122657</v>
+        <v>1.08270313535201</v>
       </c>
       <c r="L4">
-        <v>1.10541920521033</v>
+        <v>1.091327867723767</v>
       </c>
       <c r="M4">
-        <v>1.108781272489287</v>
+        <v>1.094979314274079</v>
       </c>
       <c r="N4">
-        <v>1.09696129122829</v>
+        <v>1.085964003906084</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.091498129278859</v>
+        <v>1.06834688671017</v>
       </c>
       <c r="D5">
-        <v>1.088360754085183</v>
+        <v>1.074808866843526</v>
       </c>
       <c r="E5">
-        <v>1.103455395948747</v>
+        <v>1.083775046610262</v>
       </c>
       <c r="F5">
-        <v>1.106821643071848</v>
+        <v>1.087447063122846</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063210475409048</v>
+        <v>1.071768519555883</v>
       </c>
       <c r="J5">
-        <v>1.095687723974184</v>
+        <v>1.085738270727444</v>
       </c>
       <c r="K5">
-        <v>1.090670095081362</v>
+        <v>1.083877015284166</v>
       </c>
       <c r="L5">
-        <v>1.10573163720569</v>
+        <v>1.092755685020729</v>
       </c>
       <c r="M5">
-        <v>1.109090634238258</v>
+        <v>1.096392366749556</v>
       </c>
       <c r="N5">
-        <v>1.097243726219366</v>
+        <v>1.087280143607798</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.091560950484236</v>
+        <v>1.068641622781636</v>
       </c>
       <c r="D6">
-        <v>1.088410794665746</v>
+        <v>1.075041450036684</v>
       </c>
       <c r="E6">
-        <v>1.103516096835935</v>
+        <v>1.084050099528354</v>
       </c>
       <c r="F6">
-        <v>1.106881799638902</v>
+        <v>1.087719457365074</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063230700823797</v>
+        <v>1.071878947261907</v>
       </c>
       <c r="J6">
-        <v>1.095735063757706</v>
+        <v>1.085957772362359</v>
       </c>
       <c r="K6">
-        <v>1.090711778948569</v>
+        <v>1.084073050620283</v>
       </c>
       <c r="L6">
-        <v>1.105784084930221</v>
+        <v>1.092994196839232</v>
       </c>
       <c r="M6">
-        <v>1.109142566629638</v>
+        <v>1.0966284158383</v>
       </c>
       <c r="N6">
-        <v>1.09729113323081</v>
+        <v>1.087499956960211</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.091128936704694</v>
+        <v>1.066606345085381</v>
       </c>
       <c r="D7">
-        <v>1.088066659074148</v>
+        <v>1.073435515172636</v>
       </c>
       <c r="E7">
-        <v>1.103098687910539</v>
+        <v>1.082151127051882</v>
       </c>
       <c r="F7">
-        <v>1.106468134831908</v>
+        <v>1.085838874516514</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063091501200995</v>
+        <v>1.071115511574939</v>
       </c>
       <c r="J7">
-        <v>1.095409459072855</v>
+        <v>1.0844416378482</v>
       </c>
       <c r="K7">
-        <v>1.090425056802929</v>
+        <v>1.08271889262053</v>
       </c>
       <c r="L7">
-        <v>1.105423380679886</v>
+        <v>1.091347028988547</v>
       </c>
       <c r="M7">
-        <v>1.108785406922293</v>
+        <v>1.094998277144915</v>
       </c>
       <c r="N7">
-        <v>1.096965066149959</v>
+        <v>1.085981669361139</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.089322083522966</v>
+        <v>1.05787554522421</v>
       </c>
       <c r="D8">
-        <v>1.086627037929704</v>
+        <v>1.066550793974935</v>
       </c>
       <c r="E8">
-        <v>1.10135351208551</v>
+        <v>1.074015134610107</v>
       </c>
       <c r="F8">
-        <v>1.104738641191567</v>
+        <v>1.077782578062138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062506525013674</v>
+        <v>1.067818486803979</v>
       </c>
       <c r="J8">
-        <v>1.09404628818743</v>
+        <v>1.077928461176971</v>
       </c>
       <c r="K8">
-        <v>1.089224196942833</v>
+        <v>1.076898883677957</v>
       </c>
       <c r="L8">
-        <v>1.103914086208384</v>
+        <v>1.084277855732146</v>
       </c>
       <c r="M8">
-        <v>1.107290953932531</v>
+        <v>1.088002764618375</v>
       </c>
       <c r="N8">
-        <v>1.09559995940552</v>
+        <v>1.079459243231965</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.08613374515075</v>
+        <v>1.041552174020181</v>
       </c>
       <c r="D9">
-        <v>1.084085589970112</v>
+        <v>1.053700904740277</v>
       </c>
       <c r="E9">
-        <v>1.098276285387154</v>
+        <v>1.058846780074082</v>
       </c>
       <c r="F9">
-        <v>1.101689177618774</v>
+        <v>1.062766805956721</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061463780565913</v>
+        <v>1.061572134155896</v>
       </c>
       <c r="J9">
-        <v>1.091635741373214</v>
+        <v>1.065718367493057</v>
       </c>
       <c r="K9">
-        <v>1.087098892585358</v>
+        <v>1.065978917267935</v>
       </c>
       <c r="L9">
-        <v>1.101248252348684</v>
+        <v>1.071052173745042</v>
       </c>
       <c r="M9">
-        <v>1.104651375821712</v>
+        <v>1.074917475423466</v>
       </c>
       <c r="N9">
-        <v>1.093185989338334</v>
+        <v>1.067231809814502</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.084004958001994</v>
+        <v>1.029937039685671</v>
       </c>
       <c r="D10">
-        <v>1.082388007938853</v>
+        <v>1.044577992809444</v>
       </c>
       <c r="E10">
-        <v>1.096223249957443</v>
+        <v>1.048086935975691</v>
       </c>
       <c r="F10">
-        <v>1.099654744309656</v>
+        <v>1.052118453033589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060760504591379</v>
+        <v>1.057074932277382</v>
       </c>
       <c r="J10">
-        <v>1.09002284204936</v>
+        <v>1.057011249542182</v>
       </c>
       <c r="K10">
-        <v>1.085675662788307</v>
+        <v>1.058186467594307</v>
       </c>
       <c r="L10">
-        <v>1.099466631443698</v>
+        <v>1.061639049362861</v>
       </c>
       <c r="M10">
-        <v>1.102887333366628</v>
+        <v>1.065606405698148</v>
       </c>
       <c r="N10">
-        <v>1.091570799512438</v>
+        <v>1.058512326757417</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.08308234817625</v>
+        <v>1.024707715755002</v>
       </c>
       <c r="D11">
-        <v>1.081652122015664</v>
+        <v>1.040477017345328</v>
       </c>
       <c r="E11">
-        <v>1.095333849104741</v>
+        <v>1.043251673689943</v>
       </c>
       <c r="F11">
-        <v>1.09877342197227</v>
+        <v>1.047334200800951</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060454034943481</v>
+        <v>1.055038573012155</v>
       </c>
       <c r="J11">
-        <v>1.089323007168398</v>
+        <v>1.053087561789965</v>
       </c>
       <c r="K11">
-        <v>1.085057845931132</v>
+        <v>1.054673940676977</v>
       </c>
       <c r="L11">
-        <v>1.098694084539259</v>
+        <v>1.057401557948977</v>
       </c>
       <c r="M11">
-        <v>1.102122416983362</v>
+        <v>1.061415457489214</v>
       </c>
       <c r="N11">
-        <v>1.090869970785673</v>
+        <v>1.054583066918539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.082739520077677</v>
+        <v>1.022732771313362</v>
       </c>
       <c r="D12">
-        <v>1.081378654627826</v>
+        <v>1.038929294011146</v>
       </c>
       <c r="E12">
-        <v>1.095003418432041</v>
+        <v>1.041427005038782</v>
       </c>
       <c r="F12">
-        <v>1.098445995700285</v>
+        <v>1.045528930913247</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060339904321367</v>
+        <v>1.05426783452383</v>
       </c>
       <c r="J12">
-        <v>1.089062837646774</v>
+        <v>1.051605254927913</v>
       </c>
       <c r="K12">
-        <v>1.084828125505767</v>
+        <v>1.053346834445379</v>
       </c>
       <c r="L12">
-        <v>1.098406958245021</v>
+        <v>1.055801355830304</v>
       </c>
       <c r="M12">
-        <v>1.10183812794884</v>
+        <v>1.059832930798223</v>
       </c>
       <c r="N12">
-        <v>1.090609431793486</v>
+        <v>1.053098655010719</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.082813063817873</v>
+        <v>1.023157919496148</v>
       </c>
       <c r="D13">
-        <v>1.081437320089894</v>
+        <v>1.039262422838356</v>
       </c>
       <c r="E13">
-        <v>1.095074300057069</v>
+        <v>1.04181973596711</v>
       </c>
       <c r="F13">
-        <v>1.098516232702626</v>
+        <v>1.045917479608155</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060364399065614</v>
+        <v>1.054433826320686</v>
       </c>
       <c r="J13">
-        <v>1.089118654890277</v>
+        <v>1.051924371839002</v>
       </c>
       <c r="K13">
-        <v>1.084877412033048</v>
+        <v>1.053632544595998</v>
       </c>
       <c r="L13">
-        <v>1.098468555471012</v>
+        <v>1.056145824100982</v>
       </c>
       <c r="M13">
-        <v>1.101899116438151</v>
+        <v>1.060173589521564</v>
       </c>
       <c r="N13">
-        <v>1.090665328303877</v>
+        <v>1.053418225104426</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.083054012573484</v>
+        <v>1.024545145557386</v>
       </c>
       <c r="D14">
-        <v>1.081629519716699</v>
+        <v>1.040349591685158</v>
       </c>
       <c r="E14">
-        <v>1.09530653700467</v>
+        <v>1.043101443579811</v>
       </c>
       <c r="F14">
-        <v>1.098746358141103</v>
+        <v>1.047185564738081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060444606881114</v>
+        <v>1.054975162106327</v>
       </c>
       <c r="J14">
-        <v>1.089301505976527</v>
+        <v>1.052965552516226</v>
       </c>
       <c r="K14">
-        <v>1.085038861995586</v>
+        <v>1.054564708514491</v>
       </c>
       <c r="L14">
-        <v>1.098670354038451</v>
+        <v>1.05726983136927</v>
       </c>
       <c r="M14">
-        <v>1.102098920950686</v>
+        <v>1.061285183857438</v>
       </c>
       <c r="N14">
-        <v>1.090848439059643</v>
+        <v>1.054460884377636</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.083202451717018</v>
+        <v>1.025395469560047</v>
       </c>
       <c r="D15">
-        <v>1.081747923381504</v>
+        <v>1.041016136845634</v>
       </c>
       <c r="E15">
-        <v>1.095449616774375</v>
+        <v>1.043887282377699</v>
       </c>
       <c r="F15">
-        <v>1.098888137431745</v>
+        <v>1.047963071385465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060493986534585</v>
+        <v>1.055306765529854</v>
       </c>
       <c r="J15">
-        <v>1.089414137349484</v>
+        <v>1.053603704321648</v>
       </c>
       <c r="K15">
-        <v>1.085138305318049</v>
+        <v>1.055136026373283</v>
       </c>
       <c r="L15">
-        <v>1.098794666425978</v>
+        <v>1.057958834779824</v>
       </c>
       <c r="M15">
-        <v>1.102222005128315</v>
+        <v>1.061966591637284</v>
       </c>
       <c r="N15">
-        <v>1.090961230382069</v>
+        <v>1.055099942431819</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.084066170653604</v>
+        <v>1.030279673256111</v>
       </c>
       <c r="D16">
-        <v>1.082436828684088</v>
+        <v>1.04484683696106</v>
       </c>
       <c r="E16">
-        <v>1.096282267306234</v>
+        <v>1.048403944777146</v>
       </c>
       <c r="F16">
-        <v>1.099713226023328</v>
+        <v>1.052432137419359</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060780802816196</v>
+        <v>1.05720812259416</v>
       </c>
       <c r="J16">
-        <v>1.090069257171062</v>
+        <v>1.057268267860161</v>
       </c>
       <c r="K16">
-        <v>1.085716632365866</v>
+        <v>1.058416533966818</v>
       </c>
       <c r="L16">
-        <v>1.099517879485706</v>
+        <v>1.061916713392737</v>
       </c>
       <c r="M16">
-        <v>1.102938075403525</v>
+        <v>1.065881033168252</v>
       </c>
       <c r="N16">
-        <v>1.091617280548937</v>
+        <v>1.058769710070887</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.084607732809421</v>
+        <v>1.033288201640154</v>
       </c>
       <c r="D17">
-        <v>1.08286873857503</v>
+        <v>1.047208178654275</v>
       </c>
       <c r="E17">
-        <v>1.096804450893003</v>
+        <v>1.051188501324965</v>
       </c>
       <c r="F17">
-        <v>1.100230672630233</v>
+        <v>1.055187597085632</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060960192751937</v>
+        <v>1.058376304470972</v>
       </c>
       <c r="J17">
-        <v>1.090479808831479</v>
+        <v>1.059524644705067</v>
       </c>
       <c r="K17">
-        <v>1.086078984812548</v>
+        <v>1.060436186011117</v>
       </c>
       <c r="L17">
-        <v>1.099971236602344</v>
+        <v>1.064354831502577</v>
       </c>
       <c r="M17">
-        <v>1.103386957180072</v>
+        <v>1.068292556844497</v>
       </c>
       <c r="N17">
-        <v>1.092028415239802</v>
+        <v>1.061029291229724</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.084923537010771</v>
+        <v>1.035023921933014</v>
       </c>
       <c r="D18">
-        <v>1.083120585238646</v>
+        <v>1.048571100763336</v>
       </c>
       <c r="E18">
-        <v>1.097108991210176</v>
+        <v>1.052795845703088</v>
       </c>
       <c r="F18">
-        <v>1.100532452223073</v>
+        <v>1.056778230505419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06106464017265</v>
+        <v>1.05904916458737</v>
       </c>
       <c r="J18">
-        <v>1.090719138082089</v>
+        <v>1.060826078612085</v>
       </c>
       <c r="K18">
-        <v>1.086290189617347</v>
+        <v>1.061600984375169</v>
       </c>
       <c r="L18">
-        <v>1.100235566904218</v>
+        <v>1.06576149925499</v>
       </c>
       <c r="M18">
-        <v>1.10364867891215</v>
+        <v>1.069683937050694</v>
       </c>
       <c r="N18">
-        <v>1.0922680843654</v>
+        <v>1.062332573322166</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.085031204687037</v>
+        <v>1.035612589174692</v>
       </c>
       <c r="D19">
-        <v>1.083206445125596</v>
+        <v>1.049033429544221</v>
       </c>
       <c r="E19">
-        <v>1.097212824834793</v>
+        <v>1.053341114247905</v>
       </c>
       <c r="F19">
-        <v>1.100635344894324</v>
+        <v>1.057317844119254</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0611002222592</v>
+        <v>1.059277174932901</v>
       </c>
       <c r="J19">
-        <v>1.090800719770832</v>
+        <v>1.061267397340475</v>
       </c>
       <c r="K19">
-        <v>1.086362179773789</v>
+        <v>1.061995952563131</v>
       </c>
       <c r="L19">
-        <v>1.100325678968655</v>
+        <v>1.066238572311873</v>
       </c>
       <c r="M19">
-        <v>1.103737901827457</v>
+        <v>1.070155834575201</v>
       </c>
       <c r="N19">
-        <v>1.092349781909498</v>
+        <v>1.06277451877377</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.084549636610678</v>
+        <v>1.032967408222449</v>
       </c>
       <c r="D20">
-        <v>1.082822406933576</v>
+        <v>1.046956331761887</v>
       </c>
       <c r="E20">
-        <v>1.096748429759375</v>
+        <v>1.050891501555546</v>
       </c>
       <c r="F20">
-        <v>1.100175159493395</v>
+        <v>1.05489369188648</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060940965336587</v>
+        <v>1.058251857590784</v>
       </c>
       <c r="J20">
-        <v>1.09043577488508</v>
+        <v>1.059284087000434</v>
       </c>
       <c r="K20">
-        <v>1.086040123284514</v>
+        <v>1.06022087605217</v>
       </c>
       <c r="L20">
-        <v>1.099922606587296</v>
+        <v>1.064094855422719</v>
       </c>
       <c r="M20">
-        <v>1.103338807137636</v>
+        <v>1.068035410639895</v>
       </c>
       <c r="N20">
-        <v>1.091984318760149</v>
+        <v>1.060788391905558</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.082983062791004</v>
+        <v>1.024137561898383</v>
       </c>
       <c r="D21">
-        <v>1.081572925236867</v>
+        <v>1.040030137605249</v>
       </c>
       <c r="E21">
-        <v>1.095238150910536</v>
+        <v>1.042724821762568</v>
       </c>
       <c r="F21">
-        <v>1.098678593731187</v>
+        <v>1.046812941591031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06042099581229</v>
+        <v>1.054816156467526</v>
       </c>
       <c r="J21">
-        <v>1.089247666981833</v>
+        <v>1.052659653044931</v>
       </c>
       <c r="K21">
-        <v>1.084991325537468</v>
+        <v>1.05429084158908</v>
       </c>
       <c r="L21">
-        <v>1.09861093405697</v>
+        <v>1.056939579383951</v>
       </c>
       <c r="M21">
-        <v>1.102040088086594</v>
+        <v>1.06095857619121</v>
       </c>
       <c r="N21">
-        <v>1.090794523607401</v>
+        <v>1.054154550494005</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.08199734263968</v>
+        <v>1.018396160661067</v>
       </c>
       <c r="D22">
-        <v>1.08078659252226</v>
+        <v>1.03553293138532</v>
       </c>
       <c r="E22">
-        <v>1.094288185550831</v>
+        <v>1.037423166529603</v>
       </c>
       <c r="F22">
-        <v>1.097737271688564</v>
+        <v>1.04156794903429</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060092367626912</v>
+        <v>1.052572445903777</v>
       </c>
       <c r="J22">
-        <v>1.088499383594566</v>
+        <v>1.048349638052698</v>
       </c>
       <c r="K22">
-        <v>1.08433053936348</v>
+        <v>1.050431876432847</v>
       </c>
       <c r="L22">
-        <v>1.097785259763921</v>
+        <v>1.052288013221976</v>
       </c>
       <c r="M22">
-        <v>1.101222575244906</v>
+        <v>1.056358589450806</v>
       </c>
       <c r="N22">
-        <v>1.090045177571895</v>
+        <v>1.049838414786117</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.082519964556255</v>
+        <v>1.021458683509067</v>
       </c>
       <c r="D23">
-        <v>1.08120351299646</v>
+        <v>1.037931139952627</v>
       </c>
       <c r="E23">
-        <v>1.094791818779717</v>
+        <v>1.040250286542379</v>
       </c>
       <c r="F23">
-        <v>1.098236320865956</v>
+        <v>1.044364766348915</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.060266741614551</v>
+        <v>1.053770150081564</v>
       </c>
       <c r="J23">
-        <v>1.088896184600192</v>
+        <v>1.050648862156471</v>
       </c>
       <c r="K23">
-        <v>1.084680965053153</v>
+        <v>1.052490544603358</v>
       </c>
       <c r="L23">
-        <v>1.098223058871467</v>
+        <v>1.054769081249475</v>
       </c>
       <c r="M23">
-        <v>1.101656046159972</v>
+        <v>1.058812087659053</v>
       </c>
       <c r="N23">
-        <v>1.090442542080462</v>
+        <v>1.052140904051842</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.084575888028631</v>
+        <v>1.033112419808955</v>
       </c>
       <c r="D24">
-        <v>1.082843342452243</v>
+        <v>1.047070174925659</v>
       </c>
       <c r="E24">
-        <v>1.096773743423355</v>
+        <v>1.05102575484845</v>
       </c>
       <c r="F24">
-        <v>1.100200243608472</v>
+        <v>1.055026546073487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060949653957828</v>
+        <v>1.058308116038769</v>
       </c>
       <c r="J24">
-        <v>1.090455672358104</v>
+        <v>1.059392829880164</v>
       </c>
       <c r="K24">
-        <v>1.086057683597291</v>
+        <v>1.060318206121522</v>
       </c>
       <c r="L24">
-        <v>1.099944580722851</v>
+        <v>1.064212375009736</v>
       </c>
       <c r="M24">
-        <v>1.103360564388612</v>
+        <v>1.068151650836718</v>
       </c>
       <c r="N24">
-        <v>1.092004244489867</v>
+        <v>1.06089728921265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.086958557792628</v>
+        <v>1.045893260533906</v>
       </c>
       <c r="D25">
-        <v>1.084743182430202</v>
+        <v>1.057115148980563</v>
       </c>
       <c r="E25">
-        <v>1.099072080640457</v>
+        <v>1.062875308105792</v>
       </c>
       <c r="F25">
-        <v>1.102477779462998</v>
+        <v>1.06675429382876</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061734778788974</v>
+        <v>1.063242531422154</v>
       </c>
       <c r="J25">
-        <v>1.092259946830575</v>
+        <v>1.068969041085348</v>
       </c>
       <c r="K25">
-        <v>1.087649444663372</v>
+        <v>1.06888710866354</v>
       </c>
       <c r="L25">
-        <v>1.101938195809169</v>
+        <v>1.074570120771776</v>
       </c>
       <c r="M25">
-        <v>1.105334518775739</v>
+        <v>1.078397743173531</v>
       </c>
       <c r="N25">
-        <v>1.093811081239041</v>
+        <v>1.070487099736152</v>
       </c>
     </row>
   </sheetData>
